--- a/Test.xlsx
+++ b/Test.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Linkedin Only" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -446,7 +446,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,138 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amark/Documents/GitHub/SheetFormatter/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCF28DA-A850-B946-926C-A56734C15786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="500" windowWidth="16160" windowHeight="16220" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Linkedin Only" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Email Status</t>
-  </si>
-  <si>
-    <t>First Phone</t>
-  </si>
-  <si>
-    <t>Employees</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Person Linkedin</t>
-  </si>
-  <si>
-    <t>Company City</t>
-  </si>
-  <si>
-    <t>Company State</t>
-  </si>
-  <si>
-    <t>Company Count</t>
-  </si>
-  <si>
-    <t>Mohid</t>
-  </si>
-  <si>
-    <t>Raina</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Saeed</t>
-  </si>
-  <si>
-    <t>Burditt</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>MUS</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>Amar</t>
-  </si>
-  <si>
-    <t>Kanakamedala</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Unavailable</t>
-  </si>
-  <si>
-    <t>Saatvik</t>
-  </si>
-  <si>
-    <t>Mohan</t>
-  </si>
-  <si>
-    <t>lyne.ai</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -149,27 +59,86 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -493,203 +462,385 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Email Status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>First Phone</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Employees</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Person Linkedin</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Company City</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Company State</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Company Count</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Amar</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Kanakamedala</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mohid</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Saeed</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Raina</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Burditt</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>MUS</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Saatvik</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Mohan</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>lyne.ai</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="http://lyne.ai/" xr:uid="{8B6C1E2B-DB3D-D848-BDBB-CDB034A882C8}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="http://lyne.ai/" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Email Status</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>First Phone</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Employees</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Person Linkedin</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Company City</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Company State</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Company Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mohid</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Saeed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Test.xlsx
+++ b/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="500" windowWidth="16160" windowHeight="16220" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12640" yWindow="520" windowWidth="16160" windowHeight="16220" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,6 +37,13 @@
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -61,10 +68,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +478,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
